--- a/googlemaplink - Copy.xlsx
+++ b/googlemaplink - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robots\Demo project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robots\GitClone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>https://www.google.co.in/maps/place/BUSINESS+SARTHI/data=!4m7!3m6!1s0x390cef8f6aaaaaab:0x1ecaa3e636c24ab9!8m2!3d28.6063152!4d77.3855549!16s%2Fg%2F11n90jf4xk!19sChIJq6qqao_vDDkRuUrCNuajyh4?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
@@ -79,36 +79,6 @@
   </si>
   <si>
     <t>https://www.google.co.in/maps/place/OYO+79643+OYO+Townhouse+Hotel+Merriment/data=!4m10!3m9!1s0x390cefc17186812f:0x852b3086c4b40207!5m2!4m1!1i2!8m2!3d28.5988609!4d77.3819657!16s%2Fg%2F11qmby7z2g!19sChIJL4GGccHvDDkRBwK0xIYwK4U?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Hotel+Kanak+Residency/data=!4m10!3m9!1s0x390cef864bb59025:0xa76e0a611418b9d7!5m2!4m1!1i2!8m2!3d28.6029104!4d77.3815448!16s%2Fg%2F11dfgsx97x!19sChIJJZC1S4bvDDkR17kYFGEKbqc?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Surya+Palace/data=!4m10!3m9!1s0x390ce5af9dc84f39:0x6df99eb57fc56b60!5m2!4m1!1i2!8m2!3d28.5810917!4d77.3426929!16s%2Fg%2F1tv3m1kt!19sChIJOU_Ina_lDDkRYGvFf7We-W0?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/OYO+49486+Star+Rooms/data=!4m10!3m9!1s0x390cef9e5c92ae73:0xd49ede13a20123e7!5m2!4m1!1i2!8m2!3d28.5986238!4d77.3847072!16s%2Fg%2F11h_3p2nqt!19sChIJc66SXJ7vDDkR5yMBohPentQ?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Stay@bh203/data=!4m10!3m9!1s0x390cef841ab51931:0x57477dd7c0072e5e!5m2!4m1!1i2!8m2!3d28.5999318!4d77.3845742!16s%2Fg%2F11c0rm9t9w!19sChIJMRm1GoTvDDkRXi4HwNd9R1c?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Ginger+Noida+Sector+63/data=!4m10!3m9!1s0x390ce5748d8e0ff1:0x30282c9bbd203d92!5m2!4m1!1i2!8m2!3d28.6254083!4d77.3753632!16s%2Fg%2F12hk_9vb_!19sChIJ8Q-OjXTlDDkRkj0gvZssKDA?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Hotel+Mithila+Residency+-+Hotels+in+Sector+62+Noida%7C+Couple+Friendly+hotels+in+noida/data=!4m10!3m9!1s0x390ce5bac89f2c9d:0xc4a165dc00a2182!5m2!4m1!1i2!8m2!3d28.6094597!4d77.376953!16s%2Fg%2F11q9fvhlqb!19sChIJnSyfyLrlDDkRgiEKwF0WSgw?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Hotel+Loto/data=!4m10!3m9!1s0x390ce5635a3bc217:0xdbec63df25cc87c0!5m2!4m1!1i2!8m2!3d28.6045371!4d77.3731133!16s%2Fg%2F11fqsscjkp!19sChIJF8I7WmPlDDkRwIfMJd9j7Ns?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/The+indigo+stay/data=!4m10!3m9!1s0x390ce44e33215de9:0xa90d7ffd3b51537b!5m2!4m1!1i2!8m2!3d28.5759695!4d77.3257475!16s%2Fg%2F11h7kj4fhf!19sChIJ6V0hM07kDDkRe1NRO_1_Dak?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Imperial+Banquet+%26+Hotel/data=!4m10!3m9!1s0x390cef840b8b6539:0xaa4a62315fc65ba1!5m2!4m1!1i2!8m2!3d28.599457!4d77.385294!16s%2Fg%2F11r_xjjx7h!19sChIJOWWLC4TvDDkRoVvGXzFiSqo?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Premium+Corporate+Suites/data=!4m10!3m9!1s0x390cef83ea18e5b7:0xa36f2fea07267b4!5m2!4m1!1i2!8m2!3d28.5968114!4d77.3868141!16s%2Fg%2F11g7z85m4_!19sChIJt-UY6oPvDDkRtGdyoP7yNgo?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
 </sst>
 </file>
@@ -457,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,86 +779,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
